--- a/pan.xlsx
+++ b/pan.xlsx
@@ -343,10 +343,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="A3:C19"/>
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A3:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6171875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -412,6 +412,76 @@
         <v>13</v>
       </c>
     </row>
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>600424468</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>612890677</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>610228634</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>612093399</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>613377117</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>609814329</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>610217474</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>610217487</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>610228618</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>610230945</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>610230958</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>611851305</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>611851389</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>610228647</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/pan.xlsx
+++ b/pan.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">PAN</t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t xml:space="preserve">Non-filer since: VAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 603588486</t>
   </si>
 </sst>
 </file>
@@ -145,12 +142,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -346,139 +347,139 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A3:A16"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6171875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="15.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="29.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="19.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="39.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="6.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="6.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="10.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="15.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="29.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="19.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="17.78"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>13</v>
+      <c r="A2" s="1" t="n">
+        <v>603588486</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>600424468</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>612890677</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>610228634</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>612093399</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>613377117</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>609814329</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>610217474</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>610217487</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>610228618</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>610230945</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>610230958</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>611851305</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <v>611851389</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <v>610228647</v>
       </c>
     </row>
